--- a/CardGame/Luban/Datas/__enums__.xlsx
+++ b/CardGame/Luban/Datas/__enums__.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -84,12 +71,114 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>EProfession</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>坦克</t>
+  </si>
+  <si>
+    <t>Auxiliary</t>
+  </si>
+  <si>
+    <t>辅助</t>
+  </si>
+  <si>
+    <t>EQuality</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>小将</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>良将</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>名将</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>神将</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>超神将</t>
+  </si>
+  <si>
+    <t>EEquipmetType</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>Glove</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>Armour</t>
+  </si>
+  <si>
+    <t>战甲</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>战靴</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -105,6 +194,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -118,6 +235,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,14 +287,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +295,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +303,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -193,57 +318,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,13 +353,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,24 +419,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,18 +461,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -348,36 +473,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,19 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +552,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,21 +600,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,148 +658,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -730,52 +819,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1046,13 +1135,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1151,6 +1240,215 @@
       </c>
       <c r="L3" s="1"/>
     </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="8:11">
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11">
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="8:11">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="8:11">
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="8:11">
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="8:11">
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="8:11">
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="8:11">
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="8:11">
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="8:11">
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/CardGame/Luban/Datas/__enums__.xlsx
+++ b/CardGame/Luban/Datas/__enums__.xlsx
@@ -76,22 +76,22 @@
     <t>EProfession</t>
   </si>
   <si>
-    <t>Warrior</t>
-  </si>
-  <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t>Assassin</t>
-  </si>
-  <si>
-    <t>刺客</t>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>物理输出</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>魔法输出</t>
   </si>
   <si>
     <t>Tank</t>
   </si>
   <si>
-    <t>坦克</t>
+    <t>前排肉盾</t>
   </si>
   <si>
     <t>Auxiliary</t>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/CardGame/Luban/Datas/__enums__.xlsx
+++ b/CardGame/Luban/Datas/__enums__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -173,12 +186,66 @@
   </si>
   <si>
     <t>战靴</t>
+  </si>
+  <si>
+    <t>EDamageType</t>
+  </si>
+  <si>
+    <t>PhysicsDamage</t>
+  </si>
+  <si>
+    <t>MagicDamage</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>生命回复</t>
+  </si>
+  <si>
+    <t>ETargetFliter</t>
+  </si>
+  <si>
+    <t>LargestRow</t>
+  </si>
+  <si>
+    <t>英雄数量最多的一排</t>
+  </si>
+  <si>
+    <t>HighestAttack</t>
+  </si>
+  <si>
+    <t>攻击力最高的英雄</t>
+  </si>
+  <si>
+    <t>FrontRow</t>
+  </si>
+  <si>
+    <t>前排英雄</t>
+  </si>
+  <si>
+    <t>RearRow</t>
+  </si>
+  <si>
+    <t>后排英雄</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>随机英雄</t>
+  </si>
+  <si>
+    <t>LowestHealth</t>
+  </si>
+  <si>
+    <t>生命力最低的英雄</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -194,34 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -238,6 +277,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -247,41 +325,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,7 +378,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,49 +420,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,97 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,21 +619,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +652,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,148 +725,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -819,52 +886,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1135,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1149,7 +1216,7 @@
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="13.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
@@ -1447,6 +1514,132 @@
       </c>
       <c r="K16" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11">
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11">
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11">
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/CardGame/Luban/Datas/__enums__.xlsx
+++ b/CardGame/Luban/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
   <si>
     <t>##var</t>
   </si>
@@ -191,21 +191,51 @@
     <t>EDamageType</t>
   </si>
   <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>固定值</t>
+  </si>
+  <si>
+    <t>Mult</t>
+  </si>
+  <si>
+    <t>乘法</t>
+  </si>
+  <si>
+    <t>EDamageAttr</t>
+  </si>
+  <si>
     <t>PhysicsDamage</t>
   </si>
   <si>
+    <t>物理</t>
+  </si>
+  <si>
     <t>MagicDamage</t>
   </si>
   <si>
+    <t>魔法</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
+    <t>回血</t>
+  </si>
+  <si>
     <t>生命回复</t>
   </si>
   <si>
     <t>ETargetFliter</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>先打对位前排，没有前排了，打对位后排，没有后排了再打其他位置的前排</t>
+  </si>
+  <si>
     <t>LargestRow</t>
   </si>
   <si>
@@ -240,6 +270,180 @@
   </si>
   <si>
     <t>生命力最低的英雄</t>
+  </si>
+  <si>
+    <t>EBuffEventType</t>
+  </si>
+  <si>
+    <t>OnOccur</t>
+  </si>
+  <si>
+    <t>buff在被添加、改变层数时候触发的事件</t>
+  </si>
+  <si>
+    <t>OnCast</t>
+  </si>
+  <si>
+    <t>在释放技能的时候运行的buff，执行这个buff获得最终技能要产生的Timeline</t>
+  </si>
+  <si>
+    <t>OnTick</t>
+  </si>
+  <si>
+    <t>buff在每个工作周期会执行的函数，如果这个函数为空，或者tickTime&lt;=0，都不会发生周期性工作</t>
+  </si>
+  <si>
+    <t>OnRemoved</t>
+  </si>
+  <si>
+    <t>在这个buffObj被移除之前要做的事情，如果运行之后buffObj又不足以被删除了就会被保留</t>
+  </si>
+  <si>
+    <t>OnHit</t>
+  </si>
+  <si>
+    <t>在伤害流程中，持有这个buff的人作为攻击者会发生的事情</t>
+  </si>
+  <si>
+    <t>OnBeHurt</t>
+  </si>
+  <si>
+    <t>在伤害流程中，持有这个buff的人作为挨打者会发生的事情</t>
+  </si>
+  <si>
+    <t>OnKill</t>
+  </si>
+  <si>
+    <t>在伤害流程中，如果击杀目标，则会触发的啥事情</t>
+  </si>
+  <si>
+    <t>OnBeKilled</t>
+  </si>
+  <si>
+    <t>在伤害流程中，持有这个buff的人被杀死了，会触发的事情</t>
+  </si>
+  <si>
+    <t>OnRound</t>
+  </si>
+  <si>
+    <t>buff在每一回合会执行的函数</t>
+  </si>
+  <si>
+    <t>EPropertyModType</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>HPRatio</t>
+  </si>
+  <si>
+    <t>生命值比例</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>AttackRatio</t>
+  </si>
+  <si>
+    <t>攻击力比例</t>
+  </si>
+  <si>
+    <t>PhysicalDefense</t>
+  </si>
+  <si>
+    <t>物理防御力</t>
+  </si>
+  <si>
+    <t>PhysicalDefenseRatio</t>
+  </si>
+  <si>
+    <t>物理防御力比例</t>
+  </si>
+  <si>
+    <t>MagicDefense</t>
+  </si>
+  <si>
+    <t>魔法防御力</t>
+  </si>
+  <si>
+    <t>MagicDefenseRatio</t>
+  </si>
+  <si>
+    <t>魔法防御力比例</t>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+  </si>
+  <si>
+    <t>暴击率比例</t>
+  </si>
+  <si>
+    <t>Shiled</t>
+  </si>
+  <si>
+    <t>护盾值</t>
+  </si>
+  <si>
+    <t>EControlModType</t>
+  </si>
+  <si>
+    <t>CanAttack</t>
+  </si>
+  <si>
+    <t>攻击状态</t>
+  </si>
+  <si>
+    <t>CanSkill</t>
+  </si>
+  <si>
+    <t>技能状态</t>
+  </si>
+  <si>
+    <t>CanDead</t>
+  </si>
+  <si>
+    <t>死亡状态</t>
+  </si>
+  <si>
+    <t>CanBeHurt</t>
+  </si>
+  <si>
+    <t>受伤状态</t>
+  </si>
+  <si>
+    <t>CanHeal</t>
+  </si>
+  <si>
+    <t>回复状态</t>
+  </si>
+  <si>
+    <t>ERemoveBuffType</t>
+  </si>
+  <si>
+    <t>RandomBuff</t>
+  </si>
+  <si>
+    <t>随机Buff</t>
+  </si>
+  <si>
+    <t>RandomDebuff</t>
+  </si>
+  <si>
+    <t>随机Debuff</t>
+  </si>
+  <si>
+    <t>AssignBuff</t>
+  </si>
+  <si>
+    <t>指定Buff</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1406,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1516,130 +1720,511 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" t="s">
+    <row r="18" spans="2:11">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="b">
+      <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="b">
+      <c r="D18" t="b">
         <v>1</v>
       </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>21</v>
       </c>
-      <c r="J19">
+    </row>
+    <row r="22" spans="8:11">
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11">
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20">
+      <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11">
-      <c r="H21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="b">
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11">
-      <c r="H24" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11">
-      <c r="H25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="8:11">
       <c r="H26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="8:11">
       <c r="H27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="8:11">
       <c r="H28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11">
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11">
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30">
         <v>5</v>
       </c>
-      <c r="K28" t="s">
-        <v>70</v>
+      <c r="K30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11">
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11">
+      <c r="H34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11">
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11">
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11">
+      <c r="H37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11">
+      <c r="H38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11">
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11">
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11">
+      <c r="H41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10">
+      <c r="H44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10">
+      <c r="H45" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10">
+      <c r="H46" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10">
+      <c r="H47" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="8:10">
+      <c r="H48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10">
+      <c r="H49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10">
+      <c r="H50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10">
+      <c r="H51" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" t="s">
+        <v>118</v>
+      </c>
+      <c r="J51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10">
+      <c r="H52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" t="s">
+        <v>123</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10">
+      <c r="H55" t="s">
+        <v>124</v>
+      </c>
+      <c r="I55" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10">
+      <c r="H56" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" t="s">
+        <v>127</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10">
+      <c r="H57" t="s">
+        <v>128</v>
+      </c>
+      <c r="I57" t="s">
+        <v>129</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10">
+      <c r="H58" t="s">
+        <v>130</v>
+      </c>
+      <c r="I58" t="s">
+        <v>131</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>133</v>
+      </c>
+      <c r="I60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10">
+      <c r="H61" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" t="s">
+        <v>136</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10">
+      <c r="H62" t="s">
+        <v>137</v>
+      </c>
+      <c r="I62" t="s">
+        <v>138</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/CardGame/Luban/Datas/__enums__.xlsx
+++ b/CardGame/Luban/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="144">
   <si>
     <t>##var</t>
   </si>
@@ -272,6 +272,18 @@
     <t>生命力最低的英雄</t>
   </si>
   <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>MyDeadOrLowestHealth</t>
+  </si>
+  <si>
+    <t>我方阵营以死亡的英雄或者生命最低的英雄</t>
+  </si>
+  <si>
     <t>EBuffEventType</t>
   </si>
   <si>
@@ -323,12 +335,6 @@
     <t>在伤害流程中，持有这个buff的人被杀死了，会触发的事情</t>
   </si>
   <si>
-    <t>OnRound</t>
-  </si>
-  <si>
-    <t>buff在每一回合会执行的函数</t>
-  </si>
-  <si>
     <t>EPropertyModType</t>
   </si>
   <si>
@@ -407,12 +413,6 @@
     <t>技能状态</t>
   </si>
   <si>
-    <t>CanDead</t>
-  </si>
-  <si>
-    <t>死亡状态</t>
-  </si>
-  <si>
     <t>CanBeHurt</t>
   </si>
   <si>
@@ -444,6 +444,21 @@
   </si>
   <si>
     <t>指定Buff</t>
+  </si>
+  <si>
+    <t>ETargetCamp</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>我方</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>敌方</t>
   </si>
 </sst>
 </file>
@@ -1406,10 +1421,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1419,7 +1434,7 @@
     <col min="4" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5083333333333" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
@@ -1894,43 +1909,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
-      <c r="B33" t="s">
+    <row r="32" spans="8:11">
+      <c r="H32" t="s">
         <v>81</v>
       </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="b">
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
         <v>1</v>
       </c>
-      <c r="H33" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11">
-      <c r="H34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="8:11">
       <c r="H35" t="s">
         <v>86</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
         <v>87</v>
@@ -1941,7 +1956,7 @@
         <v>88</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
         <v>89</v>
@@ -1952,7 +1967,7 @@
         <v>90</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37" t="s">
         <v>91</v>
@@ -1963,7 +1978,7 @@
         <v>92</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K38" t="s">
         <v>93</v>
@@ -1974,7 +1989,7 @@
         <v>94</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K39" t="s">
         <v>95</v>
@@ -1985,7 +2000,7 @@
         <v>96</v>
       </c>
       <c r="J40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K40" t="s">
         <v>97</v>
@@ -1996,33 +2011,33 @@
         <v>98</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" t="s">
+    <row r="42" spans="8:11">
+      <c r="H42" t="s">
         <v>100</v>
       </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
+      <c r="J42">
+        <v>7</v>
+      </c>
+      <c r="K42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
         <v>1</v>
       </c>
-      <c r="H43" t="s">
-        <v>101</v>
-      </c>
-      <c r="I43" t="s">
-        <v>102</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="8:10">
       <c r="H44" t="s">
         <v>103</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>104</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="8:10">
@@ -2041,7 +2056,7 @@
         <v>106</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="8:10">
@@ -2052,7 +2067,7 @@
         <v>108</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="8:10">
@@ -2063,7 +2078,7 @@
         <v>110</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="8:10">
@@ -2074,7 +2089,7 @@
         <v>112</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="8:10">
@@ -2085,7 +2100,7 @@
         <v>114</v>
       </c>
       <c r="J49">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="8:10">
@@ -2096,7 +2111,7 @@
         <v>116</v>
       </c>
       <c r="J50">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="8:10">
@@ -2107,7 +2122,7 @@
         <v>118</v>
       </c>
       <c r="J51">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="8:10">
@@ -2118,30 +2133,30 @@
         <v>120</v>
       </c>
       <c r="J52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10">
+      <c r="H53" t="s">
+        <v>121</v>
+      </c>
+      <c r="I53" t="s">
+        <v>122</v>
+      </c>
+      <c r="J53">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
-      <c r="B54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" t="b">
+    <row r="55" spans="2:10">
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
         <v>1</v>
       </c>
-      <c r="H54" t="s">
-        <v>122</v>
-      </c>
-      <c r="I54" t="s">
-        <v>123</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="8:10">
       <c r="H55" t="s">
         <v>124</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>125</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="8:10">
@@ -2160,7 +2175,7 @@
         <v>127</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="8:10">
@@ -2171,7 +2186,7 @@
         <v>129</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="8:10">
@@ -2182,49 +2197,80 @@
         <v>131</v>
       </c>
       <c r="J58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
         <v>132</v>
       </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" t="b">
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
         <v>1</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>133</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I61" t="s">
         <v>134</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="8:10">
-      <c r="H61" t="s">
-        <v>135</v>
-      </c>
-      <c r="I61" t="s">
-        <v>136</v>
-      </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="8:10">
       <c r="H62" t="s">
+        <v>135</v>
+      </c>
+      <c r="I62" t="s">
+        <v>136</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10">
+      <c r="H63" t="s">
         <v>137</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I63" t="s">
         <v>138</v>
       </c>
-      <c r="J62">
+      <c r="J63">
         <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" t="s">
+        <v>141</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10">
+      <c r="H66" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
